--- a/biology/Médecine/Eugène_Gley/Eugène_Gley.xlsx
+++ b/biology/Médecine/Eugène_Gley/Eugène_Gley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gley</t>
+          <t>Eugène_Gley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Eugène Émile Gley, né le 18 janvier 1857 à Épinal, mort le 24 octobre 1930 à Paris 6e, est un physiologiste et endocrinologue français qui a été professeur au Collège de France à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gley</t>
+          <t>Eugène_Gley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir appris la physiologie auprès de Henri-Étienne Beaunis à Nancy, il avait rejoint Étienne-Jules Marey à Paris. Préparateur puis professeur agrégé à la Faculté de médecine de Paris, assistant au Muséum, il était devenu en 1908, professeur au Collège de France. Membre puis président de l'Académie de Médecine. Il fut également secrétaire général de la Société de Biologie.
 Ses recherches personnelles ont porté sur les domaines les plus divers de la physiologie expérimentale. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gley</t>
+          <t>Eugène_Gley</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une place du centre-ville d'Épinal porte son nom[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une place du centre-ville d'Épinal porte son nom.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gley</t>
+          <t>Eugène_Gley</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Étude expérimentale sur l'état du pouls carotidien pendant le travail intellectuel, thèse de médecine de Nancy n° 129, 1881[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Étude expérimentale sur l'état du pouls carotidien pendant le travail intellectuel, thèse de médecine de Nancy n° 129, 1881
  Traité élémentaire de physiologie. Partie 1.
 Études de psychologie physiologique et pathologique
 Les sécrétions internes
